--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:47:27 AM</t>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:45 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>create small project using CSS box sizing, create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
   </si>
   <si>
-    <t>create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:45 PM</t>
+    <t>Generated: 2023-10-03 02:56:39 PM</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -654,20 +651,17 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -684,7 +678,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -704,7 +698,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -724,7 +718,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -744,7 +738,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -764,7 +758,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -781,7 +775,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -801,7 +795,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -821,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -841,7 +835,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -861,7 +855,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -881,7 +875,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -901,7 +895,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -921,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -941,7 +935,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -961,7 +955,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -981,7 +975,7 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1001,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1021,7 +1015,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1041,7 +1035,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1061,7 +1055,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1081,7 +1075,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1101,7 +1095,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1118,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1126,12 +1120,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,6 +196,9 @@
     <t>create small project using CSS box sizing, create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
   </si>
   <si>
+    <t>create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -205,7 +208,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:39 PM</t>
+    <t>Generated: 2023-10-03 09:45:57 PM</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -675,10 +678,10 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -698,7 +701,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -718,7 +721,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -738,7 +741,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -758,7 +761,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -775,7 +778,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -795,7 +798,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -815,7 +818,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -835,7 +838,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -855,7 +858,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -875,7 +878,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -895,7 +898,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -915,7 +918,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -935,7 +938,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -955,7 +958,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -975,7 +978,7 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -995,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1015,7 +1018,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1035,7 +1038,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1055,7 +1058,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1075,7 +1078,7 @@
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1095,7 +1098,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1112,7 +1115,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1120,12 +1123,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -196,7 +196,7 @@
     <t>create small project using CSS box sizing, create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
   </si>
   <si>
-    <t>create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
+    <t>create small project using CSS Justify content</t>
   </si>
   <si>
     <t>Completed</t>
@@ -208,7 +208,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:57 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>create small project using CSS box sizing, create small project using CSS Box Shadow, create small project ussing CSS Border Radius, create small project using CSS Justify content</t>
   </si>
   <si>
-    <t>create small project using CSS Justify content</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -644,7 +641,7 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -661,7 +658,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -671,20 +668,17 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -701,7 +695,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -721,7 +715,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -741,7 +735,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -761,7 +755,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -778,7 +772,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -798,7 +792,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -818,7 +812,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -838,7 +832,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -858,7 +852,7 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -878,7 +872,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -898,7 +892,7 @@
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -918,7 +912,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -938,7 +932,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -958,7 +952,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -978,7 +972,7 @@
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -998,7 +992,7 @@
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1018,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1038,7 +1032,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1058,7 +1052,7 @@
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1068,20 +1062,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1089,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1115,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1123,12 +1114,12 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:20 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:20 PM</t>
+    <t>Generated: 2023-10-08 11:29:28 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:28 AM</t>
+    <t>Generated: 2023-10-08 11:51:59 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:59 AM</t>
+    <t>Generated: 2023-10-10 10:43:20 AM</t>
   </si>
 </sst>
 </file>
@@ -782,20 +782,17 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:20 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:26 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week07_report.xlsx
+++ b/Reports/Week07_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week07</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:26 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
